--- a/biology/Zoologie/Colargol/Colargol.xlsx
+++ b/biology/Zoologie/Colargol/Colargol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Colargol est un ours de fiction créé dans les années 1950 par Olga Pouchine, qui raconte ses aventures à son fils le soir. Il est également le héros d'une série télévisée du même nom, diffusée à partir de 1970.
 Colargol est un ourson qui ne pense qu'à s'amuser. Il croit savoir chanter mais dès qu'il ouvre la bouche, c'est une catastrophe. Ses amis les oiseaux le conduisent chez leur roi, qui lui remet un sifflet et fait de lui un ourson chanteur.
-C'est à Victor Villien — également co-auteur de certaines musiques de Bonne nuit les petits[1] — et Mireille que l'on doit deux disques 45 tours parus en 1960 chez Philips et racontant en chansons la vie du petit ourson qui « chante en Fa en Sol ». Le succès fut considérable et donna suite à huit autres albums, rassemblés dans une collection intitulée « Les Aventures de l'ours Colargol, opérette pour les enfants ».
+C'est à Victor Villien — également co-auteur de certaines musiques de Bonne nuit les petits — et Mireille que l'on doit deux disques 45 tours parus en 1960 chez Philips et racontant en chansons la vie du petit ourson qui « chante en Fa en Sol ». Le succès fut considérable et donna suite à huit autres albums, rassemblés dans une collection intitulée « Les Aventures de l'ours Colargol, opérette pour les enfants ».
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Livres-disques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Colargol et le roi des Oiseaux (1960)
 Colargol chanteur de cirque (1960)
